--- a/data/trans_orig/P80_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P80_R-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>8999</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3952</v>
+        <v>4079</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17982</v>
+        <v>19032</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0163767920713525</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007192517223240979</v>
+        <v>0.007422507289820118</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03272518175177781</v>
+        <v>0.03463446325007737</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -762,19 +762,19 @@
         <v>8980</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4593</v>
+        <v>5121</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15994</v>
+        <v>15461</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01841365725383206</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009419524247547009</v>
+        <v>0.01050078341447714</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03279724638232451</v>
+        <v>0.03170555236809462</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -783,19 +783,19 @@
         <v>17979</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11295</v>
+        <v>10436</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>27552</v>
+        <v>28133</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.01733449740494378</v>
+        <v>0.01733449740494377</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01089075332332303</v>
+        <v>0.01006231012535219</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02656490265084913</v>
+        <v>0.02712509441496397</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>540500</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>531517</v>
+        <v>530467</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>545547</v>
+        <v>545420</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9836232079286473</v>
+        <v>0.9836232079286475</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9672748182482223</v>
+        <v>0.9653655367499242</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9928074827767591</v>
+        <v>0.9925774927101798</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>673</v>
@@ -833,19 +833,19 @@
         <v>478675</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>471661</v>
+        <v>472194</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>483062</v>
+        <v>482534</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.981586342746168</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9672027536176755</v>
+        <v>0.9682944476319056</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.990580475752453</v>
+        <v>0.9894992165855229</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1218</v>
@@ -854,19 +854,19 @@
         <v>1019175</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1009602</v>
+        <v>1009021</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1025859</v>
+        <v>1026718</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9826655025950561</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9734350973491508</v>
+        <v>0.9728749055850361</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9891092466766769</v>
+        <v>0.9899376898746478</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>8237</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3832</v>
+        <v>3598</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16472</v>
+        <v>16462</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01710828112500282</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007959607213143404</v>
+        <v>0.007472349465545662</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03421151339629946</v>
+        <v>0.03418928895044888</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -979,19 +979,19 @@
         <v>11459</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5973</v>
+        <v>6002</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19782</v>
+        <v>20657</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02710866414639844</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01413008087508786</v>
+        <v>0.01419924194364381</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04679829278018709</v>
+        <v>0.04886781632944723</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -1000,19 +1000,19 @@
         <v>19696</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11880</v>
+        <v>11605</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30471</v>
+        <v>30857</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02178338286060313</v>
+        <v>0.02178338286060312</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01313852156931231</v>
+        <v>0.01283454669585738</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0336996639112269</v>
+        <v>0.03412645880970532</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>473251</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>465016</v>
+        <v>465026</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>477656</v>
+        <v>477890</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9828917188749972</v>
+        <v>0.9828917188749973</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9657884866037005</v>
+        <v>0.9658107110495511</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9920403927868566</v>
+        <v>0.9925276505344542</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>577</v>
@@ -1050,19 +1050,19 @@
         <v>411243</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>402920</v>
+        <v>402045</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>416729</v>
+        <v>416700</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9728913358536017</v>
+        <v>0.9728913358536015</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9532017072198115</v>
+        <v>0.9511321836705526</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9858699191249122</v>
+        <v>0.985800758056356</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1048</v>
@@ -1071,19 +1071,19 @@
         <v>884494</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>873719</v>
+        <v>873333</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>892310</v>
+        <v>892585</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9782166171393969</v>
+        <v>0.9782166171393968</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.966300336088773</v>
+        <v>0.9658735411902948</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9868614784306877</v>
+        <v>0.9871654533041427</v>
       </c>
     </row>
     <row r="9">
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5579</v>
+        <v>5632</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.002336323282002842</v>
+        <v>0.002336323282002841</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01182962251596488</v>
+        <v>0.01194201481816952</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1196,19 +1196,19 @@
         <v>3477</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9281</v>
+        <v>8143</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01854311500983964</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003964423615192949</v>
+        <v>0.003892934408908917</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04950106285824903</v>
+        <v>0.04342885358124191</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1217,19 +1217,19 @@
         <v>4579</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1794</v>
+        <v>1470</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10957</v>
+        <v>10623</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006946682792766635</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002721567233056517</v>
+        <v>0.002229898578820459</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01662410419730103</v>
+        <v>0.01611684960183795</v>
       </c>
     </row>
     <row r="11">
@@ -1246,7 +1246,7 @@
         <v>470510</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>466033</v>
+        <v>465980</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>471612</v>
@@ -1255,7 +1255,7 @@
         <v>0.9976636767179972</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9881703774840352</v>
+        <v>0.9880579851818306</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1267,19 +1267,19 @@
         <v>184020</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>178216</v>
+        <v>179354</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>186754</v>
+        <v>186767</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9814568849901605</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9504989371417507</v>
+        <v>0.9565711464187582</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9960355763848069</v>
+        <v>0.9961070655910912</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>772</v>
@@ -1288,19 +1288,19 @@
         <v>654530</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>648152</v>
+        <v>648486</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>657315</v>
+        <v>657639</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9930533172072333</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9833758958026986</v>
+        <v>0.9838831503981619</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9972784327669435</v>
+        <v>0.9977701014211795</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>34195</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22664</v>
+        <v>23077</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51894</v>
+        <v>50851</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03021176875163001</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02002414386468153</v>
+        <v>0.02038857132859802</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04584916812323522</v>
+        <v>0.04492747100465301</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -1413,19 +1413,19 @@
         <v>12391</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6980</v>
+        <v>7230</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20168</v>
+        <v>20714</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.01443052061523627</v>
+        <v>0.01443052061523626</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008129289350393516</v>
+        <v>0.008419520816384654</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02348702234092289</v>
+        <v>0.02412305819038004</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -1434,19 +1434,19 @@
         <v>46586</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>32330</v>
+        <v>33593</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>63475</v>
+        <v>66342</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02340400707254301</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01624200838546469</v>
+        <v>0.01687647000878523</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03188864965809899</v>
+        <v>0.03332915995457466</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>1097648</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1079949</v>
+        <v>1080992</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1109179</v>
+        <v>1108766</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.96978823124837</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9541508318767646</v>
+        <v>0.9550725289953469</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9799758561353182</v>
+        <v>0.9796114286714019</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1211</v>
@@ -1484,19 +1484,19 @@
         <v>846285</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>838508</v>
+        <v>837962</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>851696</v>
+        <v>851446</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9855694793847637</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9765129776590771</v>
+        <v>0.9758769418096188</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9918707106496067</v>
+        <v>0.9915804791836152</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2303</v>
@@ -1505,19 +1505,19 @@
         <v>1943933</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1927044</v>
+        <v>1924177</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1958189</v>
+        <v>1956926</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9765959929274569</v>
+        <v>0.976595992927457</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9681113503419011</v>
+        <v>0.9666708400454251</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9837579916145354</v>
+        <v>0.9831235299912147</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>18651</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10227</v>
+        <v>10055</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33312</v>
+        <v>31305</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.03283778632938077</v>
+        <v>0.03283778632938076</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01800596626439174</v>
+        <v>0.01770352202171097</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05865120166230253</v>
+        <v>0.05511793085985388</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1630,19 +1630,19 @@
         <v>12499</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7291</v>
+        <v>8062</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20427</v>
+        <v>19716</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0150644579906267</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008787328354513407</v>
+        <v>0.009716087981269208</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02461866978616198</v>
+        <v>0.02376211328324597</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -1651,19 +1651,19 @@
         <v>31150</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20645</v>
+        <v>20436</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46996</v>
+        <v>46209</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02228679324808609</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01477046808196439</v>
+        <v>0.01462148941984551</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03362364999972181</v>
+        <v>0.0330606143425755</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>549313</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>534652</v>
+        <v>536659</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>557737</v>
+        <v>557909</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9671622136706192</v>
+        <v>0.9671622136706191</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9413487983376975</v>
+        <v>0.9448820691401463</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9819940337356082</v>
+        <v>0.9822964779782889</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1271</v>
@@ -1701,19 +1701,19 @@
         <v>817230</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>809302</v>
+        <v>810013</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>822438</v>
+        <v>821667</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9849355420093734</v>
+        <v>0.9849355420093733</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9753813302138379</v>
+        <v>0.976237886716754</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9912126716454867</v>
+        <v>0.9902839120187307</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1804</v>
@@ -1722,19 +1722,19 @@
         <v>1366543</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1350697</v>
+        <v>1351484</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1377048</v>
+        <v>1377257</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9777132067519139</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9663763500002782</v>
+        <v>0.9669393856574245</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9852295319180355</v>
+        <v>0.9853785105801544</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>6594</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1662</v>
+        <v>1706</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17427</v>
+        <v>19038</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02779703468760686</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007004757549676534</v>
+        <v>0.00719028525069426</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07346240835726611</v>
+        <v>0.08025373781381077</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1847,19 +1847,19 @@
         <v>2078</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6217</v>
+        <v>5162</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002464530880285538</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0007321363885150369</v>
+        <v>0.0007296776712397106</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.007371780616547601</v>
+        <v>0.006121301972775463</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -1868,19 +1868,19 @@
         <v>8673</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3407</v>
+        <v>3065</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23763</v>
+        <v>21232</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.008026306381773731</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003152868391116429</v>
+        <v>0.002836359651647727</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02199243379490627</v>
+        <v>0.019649903837434</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>230634</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>219801</v>
+        <v>218190</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>235566</v>
+        <v>235522</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9722029653123933</v>
+        <v>0.9722029653123931</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9265375916427339</v>
+        <v>0.9197462621861895</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9929952424503236</v>
+        <v>0.9928097147493058</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1154</v>
@@ -1918,19 +1918,19 @@
         <v>841207</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>837068</v>
+        <v>838123</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>842668</v>
+        <v>842670</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9975354691197144</v>
+        <v>0.9975354691197146</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9926282193834521</v>
+        <v>0.9938786980272246</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.999267863611485</v>
+        <v>0.9992703223287603</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1263</v>
@@ -1939,19 +1939,19 @@
         <v>1071840</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1056750</v>
+        <v>1059281</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1077106</v>
+        <v>1077448</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9919736936182261</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9780075662050937</v>
+        <v>0.9803500961625662</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9968471316088835</v>
+        <v>0.9971636403483525</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>77778</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>59618</v>
+        <v>58426</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>103989</v>
+        <v>102315</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02261234698215469</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01733279927047569</v>
+        <v>0.01698609227290427</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03023253974271849</v>
+        <v>0.02974595983522054</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>63</v>
@@ -2064,19 +2064,19 @@
         <v>50884</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38571</v>
+        <v>38112</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>66659</v>
+        <v>65170</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01401940160541109</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01062696574629943</v>
+        <v>0.01050057321436087</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01836570781424971</v>
+        <v>0.01795538155645361</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>123</v>
@@ -2085,19 +2085,19 @@
         <v>128662</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>106787</v>
+        <v>104954</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>157274</v>
+        <v>157117</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01820045057023468</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01510606958170325</v>
+        <v>0.01484669907366327</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02224778133501181</v>
+        <v>0.02222571181917777</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>3361855</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3335644</v>
+        <v>3337318</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3380015</v>
+        <v>3381207</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9773876530178452</v>
+        <v>0.9773876530178455</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9697674602572817</v>
+        <v>0.9702540401647796</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9826672007295244</v>
+        <v>0.9830139077270957</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5171</v>
@@ -2135,19 +2135,19 @@
         <v>3578661</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3562886</v>
+        <v>3564375</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3590974</v>
+        <v>3591433</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9859805983945888</v>
+        <v>0.985980598394589</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9816342921857503</v>
+        <v>0.9820446184435463</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9893730342537004</v>
+        <v>0.9894994267856388</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8408</v>
@@ -2156,19 +2156,19 @@
         <v>6940515</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6911903</v>
+        <v>6912060</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6962390</v>
+        <v>6964223</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9817995494297653</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9777522186649882</v>
+        <v>0.977774288180822</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9848939304182968</v>
+        <v>0.9851533009263366</v>
       </c>
     </row>
     <row r="24">
